--- a/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-Alerts/input/resources/source-data/capstatements-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08CDC4A-1818-4D52-93DC-B6CAFCAACFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE74365-E934-FC4C-A57C-58246270CF2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47835" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -378,15 +378,6 @@
     <t>Da Vinci Discharge Notification MessageHeader Profile</t>
   </si>
   <si>
-    <t>Da Vinci Admit/Discharge Notification Condition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Discharge Notification Coverage Profile</t>
-  </si>
-  <si>
-    <t>​Da Vinci Admit/Discharge Notification Encounter Profile</t>
-  </si>
-  <si>
     <t>MessageHeader</t>
   </si>
   <si>
@@ -451,15 +442,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-encounter</t>
   </si>
   <si>
     <t>source</t>
@@ -578,15 +560,6 @@
     <t>conf_Provenance</t>
   </si>
   <si>
-    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new
-`MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as
-the new Sender
-1. Update the `MessageHeader.destination.url` elements to reflect the
-new Recipient/Intermediary.</t>
-  </si>
-  <si>
     <t>The Provenance resource is required to record changes to the Vinci Notification message bundle when forwarding the notification. The Intermediary **SHALL** add a [US Core Provenance Profile](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution) to the message bundle. The `Provenance.target` references the MessageHeader and following the guidance provided in [Basic Provenance for HIE Redistribution and Transformation](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution):
 - `Provenance.agent.type` = "author" set to the Sender
 - If *no* change to the bundle contents:
@@ -594,12 +567,37 @@
 - If changes to the bundle contents:
        `Provenance.agent.type` = "assembler" set to the Intermediary</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
+  </si>
+  <si>
+    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
+  </si>
+  <si>
+    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
+          1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
+          1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
+          1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
+          1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,9 +1094,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,61 +1104,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1179,21 +1177,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1225,56 +1223,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1282,7 +1280,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1291,7 +1289,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1299,14 +1297,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1314,27 +1312,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1342,14 +1340,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1358,7 +1356,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1366,20 +1364,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1387,7 +1385,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1395,7 +1393,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1403,25 +1401,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1430,7 +1428,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1439,7 +1437,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1448,7 +1446,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1457,203 +1455,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1665,62 +1663,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1739,13 +1737,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1753,47 +1751,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1801,15 +1799,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1830,12 +1828,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1846,12 +1844,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1867,18 +1865,18 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1892,9 +1890,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -1903,13 +1901,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
@@ -1921,9 +1919,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>96</v>
@@ -1932,13 +1930,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>97</v>
@@ -1947,12 +1945,12 @@
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>98</v>
@@ -1961,13 +1959,13 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>99</v>
@@ -1976,31 +1974,31 @@
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -2010,78 +2008,78 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
     </row>
   </sheetData>
@@ -2095,29 +2093,29 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -2194,18 +2192,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="285.75" thickTop="1">
+    <row r="2" spans="1:25" ht="257" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2213,17 +2211,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -2232,18 +2230,18 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="45">
+    <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -2251,92 +2249,92 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="300">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="288" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="22:25" ht="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18">
+    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2353,16 +2351,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2379,24 +2377,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="285.75" thickBot="1">
+    <row r="2" spans="1:5" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2414,50 +2412,50 @@
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>64</v>
@@ -2478,7 +2476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2547,7 +2545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2699,13 +2697,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2717,7 +2715,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -2737,34 +2735,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2850,29 +2848,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2882,7 +2880,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2891,7 +2889,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2902,7 +2900,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2918,7 +2916,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2930,7 +2928,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2938,7 +2936,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2948,7 +2946,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2958,12 +2956,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2971,7 +2969,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2982,7 +2980,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2993,7 +2991,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -3003,7 +3001,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -3012,7 +3010,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3021,21 +3019,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -3044,7 +3042,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -3052,7 +3050,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -3063,7 +3061,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3075,304 +3073,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-Alerts/input/resources/source-data/capstatements-spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE74365-E934-FC4C-A57C-58246270CF2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32603845-CDC1-4BCB-A1B5-0487337B266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45690" yWindow="1230" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
   <si>
     <t>Element</t>
   </si>
@@ -586,18 +586,24 @@
     <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
+  </si>
+  <si>
+    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
+  </si>
+  <si>
     <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-          1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
-          1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-          1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
-          1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
+1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
+1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
+1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
+1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,12 +1097,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -1177,21 +1183,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1223,56 +1229,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1280,7 +1286,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1289,7 +1295,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1297,14 +1303,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1312,27 +1318,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1340,14 +1346,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1356,7 +1362,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1364,20 +1370,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1385,7 +1391,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1393,7 +1399,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1401,25 +1407,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1428,7 +1434,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1437,7 +1443,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1446,7 +1452,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1455,203 +1461,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" s="1" customFormat="1">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" s="1" customFormat="1">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" s="1" customFormat="1">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" s="1" customFormat="1">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" s="1" customFormat="1">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" s="1" customFormat="1">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" s="1" customFormat="1">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" s="1" customFormat="1">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" s="1" customFormat="1">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" s="1" customFormat="1">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" s="1" customFormat="1">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" s="1" customFormat="1">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" s="1" customFormat="1">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" s="1" customFormat="1">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" s="1" customFormat="1">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" s="1" customFormat="1">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:10" s="1" customFormat="1">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:10" s="1" customFormat="1">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:10" s="1" customFormat="1">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:10" s="1" customFormat="1">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" s="1" customFormat="1">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" s="1" customFormat="1">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" s="1" customFormat="1">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" s="1" customFormat="1">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" s="1" customFormat="1">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" s="1" customFormat="1">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16" s="1" customFormat="1">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:16" s="1" customFormat="1">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16" s="1" customFormat="1">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16" s="1" customFormat="1">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:16" ht="15.75">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1663,62 +1669,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16" s="1" customFormat="1">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16" s="1" customFormat="1">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16" s="1" customFormat="1">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16" s="1" customFormat="1">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16" s="1" customFormat="1">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16" s="1" customFormat="1">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16" s="1" customFormat="1">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16" s="1" customFormat="1">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16" s="1" customFormat="1">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:10" s="1" customFormat="1">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:10" s="1" customFormat="1">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1737,13 +1743,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1828,12 +1834,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1862,21 +1868,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1905,7 +1911,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -1934,7 +1940,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -1961,14 +1967,13 @@
       <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
@@ -1978,109 +1983,124 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:6">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
+      <c r="A15" s="11"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:6">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,23 +2119,23 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="257" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="285.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -2200,10 +2220,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2211,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -2219,7 +2239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -2230,7 +2250,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="45">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -2241,7 +2261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="45">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -2252,7 +2272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="45">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -2263,7 +2283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="45">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2274,7 +2294,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="45">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="45">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -2296,7 +2316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="45">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -2307,7 +2327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="45">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -2318,7 +2338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="288" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="300">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2329,12 +2349,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="22:25" ht="18">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="22:25" ht="18">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2351,16 +2371,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="285.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>117</v>
       </c>
@@ -2394,7 +2414,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2412,21 +2432,21 @@
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2499,7 +2519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2568,7 +2588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2591,7 +2611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2637,7 +2657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2697,13 +2717,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2735,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -2735,34 +2755,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2848,29 +2868,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2880,7 +2900,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2889,7 +2909,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2900,7 +2920,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2916,7 +2936,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2928,7 +2948,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2936,7 +2956,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2946,7 +2966,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2956,12 +2976,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2969,7 +2989,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" ht="18.95" customHeight="1">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2980,7 +3000,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" ht="18.95" customHeight="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2991,7 +3011,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" ht="18.95" customHeight="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -3001,7 +3021,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="18.95" customHeight="1">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -3010,7 +3030,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" ht="18.95" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3019,21 +3039,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" ht="18.95" customHeight="1">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" ht="18.95" customHeight="1">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" ht="18.95" customHeight="1">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -3042,7 +3062,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="18.95" customHeight="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -3050,7 +3070,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" ht="18.95" customHeight="1">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -3061,7 +3081,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="18.95" customHeight="1">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3073,304 +3093,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" ht="18.95" customHeight="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" ht="18.95" customHeight="1">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" ht="18.95" customHeight="1">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" ht="18.95" customHeight="1">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:27" ht="18.95" customHeight="1">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:27" ht="18.95" customHeight="1">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:27" ht="18.95" customHeight="1">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:27" ht="18.95" customHeight="1">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:27" ht="18.95" customHeight="1">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32603845-CDC1-4BCB-A1B5-0487337B266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5905955-787E-43C7-A268-7C89CF932C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45690" yWindow="1230" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45690" yWindow="1230" windowWidth="28800" windowHeight="8115" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="163">
   <si>
     <t>Element</t>
   </si>
@@ -551,12 +554,6 @@
     <t>Provenance</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
-  </si>
-  <si>
-    <t>US Core Provenance Profile</t>
-  </si>
-  <si>
     <t>conf_Provenance</t>
   </si>
   <si>
@@ -603,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,12 +677,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -695,7 +686,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -727,27 +718,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDCDCDC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDCDCDC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDCDCDC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDCDCDC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1868,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1970,10 +1943,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
@@ -2000,10 +1973,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -2015,10 +1988,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
@@ -2028,12 +2001,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -2043,12 +2016,14 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>153</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>"US Core "&amp;D12&amp;" Profile"</f>
+        <v>US Core Provenance Profile</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -2059,19 +2034,87 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" s="1" t="str">
+        <f t="shared" ref="A13:A17" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" ref="B13:B17" si="1">"US Core "&amp;D13&amp;" Profile"</f>
+        <v>US Core Location Profile</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core Organization Profile</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core Patient Profile</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core Practitioner Profile</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core PractitionerRole Profile</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
@@ -2093,14 +2136,17 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2220,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2346,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="22:25" ht="18">
@@ -2454,7 +2500,7 @@
         <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>110</v>

--- a/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5905955-787E-43C7-A268-7C89CF932C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B36816-FF6B-4551-A779-10ACB0CFCE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45690" yWindow="1230" windowWidth="28800" windowHeight="8115" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44580" yWindow="8925" windowWidth="28800" windowHeight="7800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="163">
   <si>
     <t>Element</t>
   </si>
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1906,7 +1906,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>103</v>
@@ -1921,7 +1921,7 @@
         <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>114</v>
@@ -1935,7 +1935,7 @@
         <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>100</v>
@@ -1949,7 +1949,7 @@
         <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>100</v>
@@ -1964,7 +1964,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -1979,7 +1979,7 @@
         <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>101</v>
@@ -1994,7 +1994,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>84</v>
@@ -2009,7 +2009,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>102</v>
@@ -2158,11 +2158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2301,7 +2301,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>116</v>
@@ -2312,7 +2312,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>116</v>
@@ -2323,7 +2323,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>116</v>
@@ -2334,7 +2334,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>116</v>
@@ -2345,7 +2345,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>116</v>
@@ -2356,7 +2356,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>116</v>
@@ -2367,7 +2367,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>116</v>
@@ -2471,11 +2471,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2492,7 +2492,7 @@
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2564,8 +2564,32 @@
       <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2587,8 +2611,32 @@
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2610,8 +2658,32 @@
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2633,8 +2705,32 @@
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2656,8 +2752,32 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2679,8 +2799,32 @@
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2702,8 +2846,32 @@
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2725,8 +2893,32 @@
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2746,6 +2938,30 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/notification-forwarder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-Alerts/input/resources/source-data/capstatements-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B36816-FF6B-4551-A779-10ACB0CFCE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB7875-5E46-494D-844E-74699DC33137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44580" yWindow="8925" windowWidth="28800" windowHeight="7800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -557,50 +555,50 @@
     <t>conf_Provenance</t>
   </si>
   <si>
-    <t>The Provenance resource is required to record changes to the Vinci Notification message bundle when forwarding the notification. The Intermediary **SHALL** add a [US Core Provenance Profile](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution) to the message bundle. The `Provenance.target` references the MessageHeader and following the guidance provided in [Basic Provenance for HIE Redistribution and Transformation](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution):
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
+  </si>
+  <si>
+    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
+  </si>
+  <si>
+    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
+  </si>
+  <si>
+    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
+1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
+1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
+1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
+1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
+  </si>
+  <si>
+    <t>The Provenance resource is required to record changes to the Vinci Notification message bundle when forwarding the notification. The Intermediary **SHALL** add a [US Core Provenance Profile](https://www.hl7.org/fhir/us/core/StructureDefinition-us-core-provenance.html) to the message bundle. The `Provenance.target` references the MessageHeader and following the guidance provided in [Basic Provenance for HIE Redistribution and Transformation](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution):
 - `Provenance.agent.type` = "author" set to the Sender
 - If *no* change to the bundle contents:
       `Provenance.agent.type` = "transmitter" set to the Intermediary
 - If changes to the bundle contents:
        `Provenance.agent.type` = "assembler" set to the Intermediary</t>
   </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
-  </si>
-  <si>
-    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
-  </si>
-  <si>
-    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
-1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,9 +1071,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -1092,7 +1090,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -1156,21 +1154,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1202,56 +1200,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1259,7 +1257,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1268,7 +1266,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1276,14 +1274,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1291,27 +1289,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1319,14 +1317,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1335,7 +1333,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1343,20 +1341,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1364,7 +1362,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1372,7 +1370,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1380,25 +1378,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1407,7 +1405,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1416,7 +1414,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1425,7 +1423,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1434,203 +1432,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1642,62 +1640,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1716,13 +1714,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1807,12 +1805,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1847,15 +1845,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1884,7 +1882,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -1913,7 +1911,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -1941,12 +1939,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1956,7 +1954,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -1971,12 +1969,12 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1986,12 +1984,12 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2001,12 +1999,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -2016,7 +2014,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
@@ -2033,7 +2031,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" ref="A13:A17" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
@@ -2050,7 +2048,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
@@ -2066,7 +2064,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
@@ -2083,7 +2081,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
@@ -2100,7 +2098,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
@@ -2117,35 +2115,35 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
     </row>
   </sheetData>
@@ -2159,29 +2157,29 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="285.75" thickTop="1">
+    <row r="2" spans="1:25" ht="257" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -2266,10 +2264,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2277,7 +2275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -2296,7 +2294,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="45">
+    <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -2307,7 +2305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="45">
+    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="45">
+    <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="45">
+    <row r="9" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="45">
+    <row r="10" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="45">
+    <row r="11" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="45">
+    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="45">
+    <row r="13" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="300">
+    <row r="14" spans="1:25" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2392,15 +2390,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="22:25" ht="18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18">
+    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2417,16 +2415,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="285.75" thickBot="1">
+    <row r="2" spans="1:5" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>117</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2478,21 +2476,21 @@
       <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2777,7 +2775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2979,13 +2977,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +2995,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -3017,34 +3015,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3130,29 +3128,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -3162,7 +3160,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -3171,7 +3169,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -3182,7 +3180,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -3198,7 +3196,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -3210,7 +3208,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -3218,7 +3216,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3228,7 +3226,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3238,12 +3236,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -3251,7 +3249,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3262,7 +3260,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -3273,7 +3271,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -3283,7 +3281,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -3292,7 +3290,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3301,21 +3299,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -3324,7 +3322,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -3332,7 +3330,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -3343,7 +3341,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3355,304 +3353,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>
